--- a/medicine/Psychotrope/Shirozake/Shirozake.xlsx
+++ b/medicine/Psychotrope/Shirozake/Shirozake.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le shirozake (白酒, littéralement « saké blanc ») est une variété de saké, la bière traditionnelle du Japon. Il s'agit d'une boisson fermentée à base de riz auquel on a ajouté du koji et du shōchū, mais qui a un degré alcoolique réduit à 9 % (voire 0 %) au moment du service.
 C'est pourquoi il était bu par les voyageurs et il est désormais surtout dégusté lors de Hina matsuri, la fête des petites filles et des poupées. Il complète ou concurrence alors l'amazake et le tôkashu (桃花酒, saké aux pétales de pêcher). On s'en sert également à titre d'offrande aux divinités du shinto, en le plaçant sur les étagères de poupées du Hina matsuri.
